--- a/Infection/Assets/ExcelData/UnitStatsData/UnitStatsData.xlsx
+++ b/Infection/Assets/ExcelData/UnitStatsData/UnitStatsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infection\Infection\Assets\ExcelData\UnitStatsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A802D7-8028-40AD-BF52-0AA4FAD1C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6066A3-5CED-4442-AA67-0C1631695DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B387F37B-A662-40EF-8D8D-0E1E48D0E98C}"/>
   </bookViews>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LEADER_SKILL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>lv</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -119,6 +111,14 @@
   </si>
   <si>
     <t>virusPow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>leaderSkill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,43 +500,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -544,31 +544,31 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -588,31 +588,31 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -632,31 +632,31 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>

--- a/Infection/Assets/ExcelData/UnitStatsData/UnitStatsData.xlsx
+++ b/Infection/Assets/ExcelData/UnitStatsData/UnitStatsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Infection\Infection\Assets\ExcelData\UnitStatsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6066A3-5CED-4442-AA67-0C1631695DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E88891-95C4-42A9-BC02-48C2A6AEA3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B387F37B-A662-40EF-8D8D-0E1E48D0E98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B387F37B-A662-40EF-8D8D-0E1E48D0E98C}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitParameter" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>unitCode</t>
     <phoneticPr fontId="1"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virusHp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F54A597-E5C2-440A-A3B1-9CF5CE557CE3}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +496,12 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="13" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,31 +521,34 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -559,31 +568,34 @@
         <v>15</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
       <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -603,31 +615,34 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="K3" t="b">
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
       <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -647,27 +662,30 @@
         <v>30</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
       <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7</v>
       </c>
-      <c r="K4" t="b">
+      <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
       <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>10</v>
       </c>
     </row>
